--- a/flca.mda.test.beanmapper/src/test/resources/FooTO.xlsx
+++ b/flca.mda.test.beanmapper/src/test/resources/FooTO.xlsx
@@ -91,7 +91,7 @@
     <t>bas</t>
   </si>
   <si>
-    <t>basto</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -106,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -205,17 +206,17 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
